--- a/inst/extdata/Med_calc.xlsx
+++ b/inst/extdata/Med_calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheej\Documents\Sheeja_WinLap\repos\packDAMipd\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084FCEB-83BD-4AE9-908E-6EEA9F58FC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081DA94-E6DB-4909-97ED-C977FD86C729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+  <si>
+    <t>Dihydrocodeine</t>
+  </si>
   <si>
     <t>Morphine</t>
   </si>
@@ -41,52 +44,73 @@
     <t>Oxycodone</t>
   </si>
   <si>
-    <t>Tramadol</t>
-  </si>
-  <si>
-    <t>Conversion factor</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>2.4 mg/day</t>
   </si>
   <si>
-    <t xml:space="preserve">Buprenorphine </t>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>tablets</t>
   </si>
   <si>
     <t>mcg</t>
   </si>
   <si>
+    <t>tablet</t>
+  </si>
+  <si>
     <t>mg</t>
   </si>
   <si>
-    <t>8/500 mg</t>
-  </si>
-  <si>
-    <t>15/500 mg</t>
-  </si>
-  <si>
-    <t>30/500 mg</t>
-  </si>
-  <si>
-    <t>10/500 mg</t>
+    <t>patch</t>
   </si>
   <si>
     <t>mcg/hr</t>
   </si>
   <si>
+    <t>patches</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>mg/ml</t>
   </si>
   <si>
+    <t>Buprenorphine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-codamol </t>
+  </si>
+  <si>
+    <t>strength not given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-dydramol </t>
+  </si>
+  <si>
     <t>Fentanyl</t>
   </si>
   <si>
-    <t>Buprenorphine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-codamol </t>
+    <t>Hydromorphone</t>
+  </si>
+  <si>
+    <t>Meptazinol</t>
+  </si>
+  <si>
+    <t>Pethidine</t>
+  </si>
+  <si>
+    <t>Tapentadol</t>
+  </si>
+  <si>
+    <t>Methadone</t>
   </si>
   <si>
     <t>Co-codamol</t>
@@ -95,55 +119,34 @@
     <t>Co-dydramol</t>
   </si>
   <si>
-    <t>Methadone</t>
-  </si>
-  <si>
-    <t>Tapentadol</t>
-  </si>
-  <si>
-    <t>Pethidine</t>
-  </si>
-  <si>
-    <t>Meptazinol</t>
-  </si>
-  <si>
-    <t>Hydromorphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dihydrocodeine </t>
-  </si>
-  <si>
-    <t>Co-dydramol (strength not given)</t>
-  </si>
-  <si>
     <t>Codeine Phosphate</t>
   </si>
   <si>
-    <t>Co-codamol (strengh not given)</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>tablets</t>
-  </si>
-  <si>
-    <t>patches</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tramadol </t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>8mg/500mg</t>
+  </si>
+  <si>
+    <t>15mg/500mg</t>
+  </si>
+  <si>
+    <t>10mg/500mg</t>
+  </si>
+  <si>
+    <t>30mg/500mg</t>
   </si>
 </sst>
 </file>
@@ -512,11 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,31 +527,35 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3.5000000000000003E-2</v>
@@ -560,10 +566,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -571,27 +577,30 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0.15</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -599,28 +608,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0.1</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -628,27 +640,27 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -656,27 +668,27 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -684,13 +696,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -698,13 +710,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0.125</v>
@@ -712,13 +724,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0.4</v>
@@ -726,13 +738,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0.125</v>
@@ -740,27 +752,27 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>0.15</v>
@@ -768,13 +780,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>0.15</v>
@@ -782,13 +794,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0.15</v>
@@ -796,13 +808,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>0.1</v>
@@ -813,55 +825,63 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
